--- a/Datasets/2nd Analysis Datasets/Results/Vader/Bias_Dataset_Vader.xlsx
+++ b/Datasets/2nd Analysis Datasets/Results/Vader/Bias_Dataset_Vader.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\2nd Analysis Datasets\Results\Vader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5D8772-31B8-4797-82A4-ECF152B7F051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A894C01-ACCD-432F-A3DE-FA59BED05C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{6DC05540-F395-446D-A6DF-3CF10B15298F}"/>
+    <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{6DC05540-F395-446D-A6DF-3CF10B15298F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>Polarity</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>Polarity_Result</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
   </si>
 </sst>
 </file>
@@ -628,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBC1B0B-45E0-444A-A80E-9314D4070B4C}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +654,7 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,8 +676,32 @@
       <c r="G1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -687,8 +723,48 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="b">
+        <f>IF(AND(A2=-1,G2=-1),"TP")</f>
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <f>IF(AND(A2=1,G2=-1),"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <f>IF(AND(A2=1,G2=1),"TN")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(AND(A2=-1,G2=1),"FN")</f>
+        <v>FN</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIF(I2:I200,"TP")</f>
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(J2:J200,"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIF(K2:K200,"TN")</f>
+        <v>31</v>
+      </c>
+      <c r="Q2">
+        <f>COUNTIF(L2:L200,"FN")</f>
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <f>COUNTIF(A2:A100,1)</f>
+        <v>44</v>
+      </c>
+      <c r="T2">
+        <f>COUNTIF(A2:A100,-1)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -710,8 +786,24 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I66" si="0">IF(AND(A3=-1,G3=-1),"TP")</f>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J66" si="1">IF(AND(A3=1,G3=-1),"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="2">IF(AND(A3=1,G3=1),"TN")</f>
+        <v>TN</v>
+      </c>
+      <c r="L3" t="b">
+        <f t="shared" ref="L3:L66" si="3">IF(AND(A3=-1,G3=1),"FN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -733,8 +825,24 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L4" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -756,8 +864,24 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
@@ -779,8 +903,24 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
@@ -802,8 +942,24 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1</v>
       </c>
@@ -825,8 +981,24 @@
       <c r="G8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -848,8 +1020,24 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -871,8 +1059,24 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -894,8 +1098,24 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -917,8 +1137,24 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -940,8 +1176,24 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -963,8 +1215,24 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1</v>
       </c>
@@ -986,8 +1254,24 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1</v>
       </c>
@@ -1009,8 +1293,24 @@
       <c r="G16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1032,8 +1332,24 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1055,8 +1371,24 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1078,8 +1410,24 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1101,8 +1449,24 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1</v>
       </c>
@@ -1124,8 +1488,24 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1147,8 +1527,24 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1</v>
       </c>
@@ -1170,8 +1566,24 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1193,8 +1605,24 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1</v>
       </c>
@@ -1216,8 +1644,24 @@
       <c r="G25">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1239,8 +1683,24 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1262,8 +1722,24 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1285,8 +1761,24 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L28" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1</v>
       </c>
@@ -1308,8 +1800,24 @@
       <c r="G29">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="J29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1331,8 +1839,24 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1</v>
       </c>
@@ -1354,8 +1878,24 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1</v>
       </c>
@@ -1377,8 +1917,24 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1400,8 +1956,24 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L33" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1423,8 +1995,24 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L34" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1446,8 +2034,24 @@
       <c r="G35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L35" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1469,8 +2073,24 @@
       <c r="G36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L36" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1492,8 +2112,24 @@
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L37" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1515,8 +2151,24 @@
       <c r="G38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L38" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1</v>
       </c>
@@ -1538,8 +2190,24 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1</v>
       </c>
@@ -1561,8 +2229,24 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1584,8 +2268,24 @@
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L41" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1607,8 +2307,24 @@
       <c r="G42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L42" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1630,8 +2346,24 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L43" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1653,8 +2385,24 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L44" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1</v>
       </c>
@@ -1676,8 +2424,24 @@
       <c r="G45">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="J45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1699,8 +2463,24 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1722,8 +2502,24 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L47" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1</v>
       </c>
@@ -1745,8 +2541,24 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1768,8 +2580,24 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L49" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1791,8 +2619,24 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1814,8 +2658,24 @@
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L51" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1837,8 +2697,24 @@
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L52" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1860,8 +2736,24 @@
       <c r="G53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L53" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1883,8 +2775,24 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1</v>
       </c>
@@ -1906,8 +2814,24 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1929,8 +2853,24 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1</v>
       </c>
@@ -1952,8 +2892,24 @@
       <c r="G57">
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="J57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-1</v>
       </c>
@@ -1975,8 +2931,24 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1998,8 +2970,24 @@
       <c r="G59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L59" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1</v>
       </c>
@@ -2021,8 +3009,24 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1</v>
       </c>
@@ -2044,8 +3048,24 @@
       <c r="G61">
         <v>-1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>TP</v>
+      </c>
+      <c r="J61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2067,8 +3087,24 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2090,8 +3126,24 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L63" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2113,8 +3165,24 @@
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L64" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2136,8 +3204,24 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L65" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2159,8 +3243,24 @@
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="2"/>
+        <v>TN</v>
+      </c>
+      <c r="L66" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1</v>
       </c>
@@ -2182,8 +3282,24 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67" t="b">
+        <f t="shared" ref="I67:I68" si="4">IF(AND(A67=-1,G67=-1),"TP")</f>
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <f t="shared" ref="J67:J68" si="5">IF(AND(A67=1,G67=-1),"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <f t="shared" ref="K67:K68" si="6">IF(AND(A67=1,G67=1),"TN")</f>
+        <v>0</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L68" si="7">IF(AND(A67=-1,G67=1),"FN")</f>
+        <v>FN</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2203,6 +3319,22 @@
         <v>0</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
